--- a/Controller/data_Controller.xlsx
+++ b/Controller/data_Controller.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PYTHON\Browser Drivers\Final_Automation_FW\Controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjanagonnavar\PycharmProjects\Python_FW\Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -631,7 +631,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +667,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
